--- a/experimental_results_logs_csv/combined_data.xlsx
+++ b/experimental_results_logs_csv/combined_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitriy S. VeRiM\Desktop\logs_csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitriy S. VeRiM\Desktop\experimental_results_logs_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED065B4E-41C8-47DD-8151-AD4AD825F800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B3E35D-D6FA-4B38-8247-D5093293FDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5030,7 +5030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5080,49 +5080,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5266,24 +5230,6 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5306,6 +5252,78 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5688,7 +5706,7 @@
             <c:numRef>
               <c:f>All_Data!$M$2:$M$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -5715,7 +5733,7 @@
             <c:numRef>
               <c:f>All_Data!$O$2:$O$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>249</c:v>
@@ -5849,7 +5867,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5984,7 +6002,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6347,7 +6365,7 @@
             <c:numRef>
               <c:f>All_Data!$M$2:$M$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -6523,7 +6541,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7019,7 +7037,7 @@
             <c:numRef>
               <c:f>All_Data!$M$2:$M$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -7046,7 +7064,7 @@
             <c:numRef>
               <c:f>All_Data!$O$2:$O$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>249</c:v>
@@ -7153,7 +7171,7 @@
             <c:numRef>
               <c:f>All_Data!$M$2:$M$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -7180,7 +7198,7 @@
             <c:numRef>
               <c:f>All_Data!$P$2:$P$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -7287,7 +7305,7 @@
             <c:numRef>
               <c:f>All_Data!$M$2:$M$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -7314,7 +7332,7 @@
             <c:numRef>
               <c:f>All_Data!$Q$2:$Q$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7462,7 +7480,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7611,7 +7629,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7971,7 +7989,7 @@
             <c:numRef>
               <c:f>All_Data!$M$2:$M$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -8147,7 +8165,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8545,7 +8563,7 @@
             <c:numRef>
               <c:f>All_Data!$M$2:$M$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
@@ -8721,7 +8739,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8940,6 +8958,2014 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Packet Delivery Ratio (PDR) vs. Distance Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-KZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4284776902887138E-2"/>
+                  <c:y val="-7.6354257801108175E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-7291-4DDD-9F53-600BF3EC8D26}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4930008748906136E-3"/>
+                  <c:y val="-3.4687591134441531E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7291-4DDD-9F53-600BF3EC8D26}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-KZ"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>All_Data!$U$2:$U$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.78243042885614356</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.0666056866505809</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.6344944992954726</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.016912696724126</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>All_Data!$U$2:$U$6</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.78243042885614356</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.0666056866505809</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.6344944992954726</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.016912696724126</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>All_Data!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>All_Data!$S$2:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>99.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7291-4DDD-9F53-600BF3EC8D26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199595296"/>
+        <c:axId val="199599136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="199595296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Distance [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-KZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-KZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199599136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199599136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>PDR [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-KZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-KZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199595296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-KZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Packet Loss Ratio (PLR) vs. Distance Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4284776902887138E-2"/>
+                  <c:y val="-7.6354257801108175E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-8986-46D0-9E99-EB8B05B19C18}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1173665791776054E-2"/>
+                  <c:y val="-6.7094998541849027E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-8986-46D0-9E99-EB8B05B19C18}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-KZ"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>All_Data!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>All_Data!$Y$2:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8986-46D0-9E99-EB8B05B19C18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199595296"/>
+        <c:axId val="199599136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="199595296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Distance [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-KZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199599136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199599136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>PLR [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-KZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199595296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-KZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Packet Error Ratio (PER) vs. Distance Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="EE0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EE0000"/>
+              </a:solidFill>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="EE0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.4284776902887138E-2"/>
+                  <c:y val="-7.6354257801108175E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A78D-4542-AFDF-2ACE784C7A1E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4930008748906136E-3"/>
+                  <c:y val="-3.4687591134441531E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A78D-4542-AFDF-2ACE784C7A1E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7833333333333332E-2"/>
+                  <c:y val="-6.2465368912219391E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A78D-4542-AFDF-2ACE784C7A1E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-KZ"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>All_Data!$M$2:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>All_Data!$X$2:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A78D-4542-AFDF-2ACE784C7A1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199595296"/>
+        <c:axId val="199599136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="199595296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Distance [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-KZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199599136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199599136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>PER [%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-KZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199595296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-KZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9101,6 +11127,126 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11657,6 +13803,1554 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11836,6 +15530,118 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE566395-3A4A-B475-329E-4F786DF1CF0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83AC68E-18C1-49BB-97DB-EB6EFC518E03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70948C20-CBC9-4739-830A-6114234C8150}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12131,30 +15937,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W22" sqref="W22"/>
+    <sheetView tabSelected="1" topLeftCell="I22" workbookViewId="0">
+      <selection activeCell="W73" sqref="W73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="27" customWidth="1"/>
-    <col min="4" max="6" width="10.140625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="27" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" style="27" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="27" customWidth="1"/>
-    <col min="12" max="13" width="13" style="16" customWidth="1"/>
-    <col min="14" max="15" width="20.140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="17" customWidth="1"/>
+    <col min="4" max="6" width="10.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="17" customWidth="1"/>
+    <col min="8" max="9" width="12.42578125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="13" style="16" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="16" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" style="16" customWidth="1"/>
     <col min="16" max="16" width="24" style="16" customWidth="1"/>
     <col min="17" max="17" width="22.140625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="16" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" style="16" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="16" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="16" customWidth="1"/>
     <col min="20" max="20" width="14.7109375" customWidth="1"/>
-    <col min="21" max="22" width="18.7109375" customWidth="1"/>
-    <col min="23" max="24" width="22.42578125" customWidth="1"/>
-    <col min="25" max="25" width="19" customWidth="1"/>
-    <col min="26" max="26" width="22.28515625" style="27" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" customWidth="1"/>
+    <col min="23" max="23" width="18.140625" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" customWidth="1"/>
+    <col min="26" max="26" width="22.28515625" style="17" customWidth="1"/>
     <col min="27" max="28" width="22.140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12189,46 +15999,46 @@
       <c r="J1" s="11" t="s">
         <v>1511</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="46" t="s">
         <v>1513</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="18" t="s">
         <v>1510</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="19" t="s">
         <v>1517</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="19" t="s">
         <v>1518</v>
       </c>
-      <c r="Q1" s="92" t="s">
+      <c r="Q1" s="74" t="s">
         <v>1519</v>
       </c>
-      <c r="R1" s="85" t="s">
+      <c r="R1" s="67" t="s">
         <v>1527</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="46" t="s">
         <v>1512</v>
       </c>
-      <c r="T1" s="72" t="s">
+      <c r="T1" s="60" t="s">
         <v>1516</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="19" t="s">
         <v>1520</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="31" t="s">
         <v>1521</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="32" t="s">
         <v>1522</v>
       </c>
-      <c r="X1" s="65" t="s">
+      <c r="X1" s="53" t="s">
         <v>1529</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="Y1" s="32" t="s">
         <v>1528</v>
       </c>
     </row>
@@ -12263,52 +16073,52 @@
       <c r="J2" s="12" t="s">
         <v>1509</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="75">
         <v>1</v>
       </c>
-      <c r="M2" s="79">
+      <c r="M2" s="76">
         <v>10</v>
       </c>
-      <c r="N2" s="31">
+      <c r="N2" s="75">
         <v>250</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="77">
         <v>249</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="77">
         <v>1</v>
       </c>
-      <c r="Q2" s="52">
+      <c r="Q2" s="78">
         <v>0</v>
       </c>
-      <c r="R2" s="86">
+      <c r="R2" s="68">
         <f t="shared" ref="R2:R7" si="0" xml:space="preserve"> O2 / N2</f>
         <v>0.996</v>
       </c>
-      <c r="S2" s="59">
+      <c r="S2" s="47">
         <f xml:space="preserve"> (O2 / N2) * 100</f>
         <v>99.6</v>
       </c>
-      <c r="T2" s="73">
+      <c r="T2" s="61">
         <v>1.96</v>
       </c>
-      <c r="U2" s="32">
+      <c r="U2" s="20">
         <f xml:space="preserve"> T2 * SQRT((S2) * (100 - S2) / N2)</f>
         <v>0.78243042885614356</v>
       </c>
-      <c r="V2" s="32">
+      <c r="V2" s="20">
         <f t="shared" ref="V2:V7" si="1">S2-U2</f>
         <v>98.817569571143849</v>
       </c>
-      <c r="W2" s="51">
+      <c r="W2" s="39">
         <f t="shared" ref="W2:W7" si="2">S2+U2</f>
         <v>100.38243042885614</v>
       </c>
-      <c r="X2" s="66">
+      <c r="X2" s="54">
         <f t="shared" ref="X2:X7" si="3">P2 * 100 / N2</f>
         <v>0.4</v>
       </c>
-      <c r="Y2" s="52">
+      <c r="Y2" s="40">
         <f t="shared" ref="Y2:Y7" si="4">Q2 * 100 / N2</f>
         <v>0</v>
       </c>
@@ -12344,52 +16154,52 @@
       <c r="J3" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="79">
         <v>2</v>
       </c>
       <c r="M3" s="80">
         <v>50</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="79">
         <v>250</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="81">
         <v>250</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="81">
         <v>0</v>
       </c>
-      <c r="Q3" s="53">
+      <c r="Q3" s="82">
         <v>0</v>
       </c>
-      <c r="R3" s="87">
+      <c r="R3" s="69">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S3" s="60">
+      <c r="S3" s="48">
         <f xml:space="preserve"> O3 * 100 / N3</f>
         <v>100</v>
       </c>
-      <c r="T3" s="74">
+      <c r="T3" s="62">
         <v>1.96</v>
       </c>
-      <c r="U3" s="33">
+      <c r="U3" s="21">
         <f xml:space="preserve"> T3 * SQRT((S3) * (100 - S3) / N3)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="33">
+      <c r="V3" s="21">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="W3" s="34">
+      <c r="W3" s="22">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="X3" s="67">
+      <c r="X3" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y3" s="53">
+      <c r="Y3" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -12425,52 +16235,52 @@
       <c r="J4" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="83">
         <v>3</v>
       </c>
-      <c r="M4" s="81">
+      <c r="M4" s="84">
         <v>200</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="83">
         <v>250</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="85">
         <v>197</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="85">
         <v>1</v>
       </c>
-      <c r="Q4" s="54">
+      <c r="Q4" s="86">
         <v>52</v>
       </c>
-      <c r="R4" s="88">
+      <c r="R4" s="70">
         <f t="shared" si="0"/>
         <v>0.78800000000000003</v>
       </c>
-      <c r="S4" s="61">
+      <c r="S4" s="49">
         <f xml:space="preserve"> O4 * 100 / N4</f>
         <v>78.8</v>
       </c>
-      <c r="T4" s="75">
+      <c r="T4" s="63">
         <v>1.96</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4" s="23">
         <f xml:space="preserve"> T4 * SQRT((S4) * (100 - S4) / N4)</f>
         <v>5.0666056866505809</v>
       </c>
-      <c r="V4" s="35">
+      <c r="V4" s="23">
         <f t="shared" si="1"/>
         <v>73.733394313349422</v>
       </c>
-      <c r="W4" s="36">
+      <c r="W4" s="24">
         <f t="shared" si="2"/>
         <v>83.866605686650573</v>
       </c>
-      <c r="X4" s="68">
+      <c r="X4" s="56">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="Y4" s="54">
+      <c r="Y4" s="42">
         <f t="shared" si="4"/>
         <v>20.8</v>
       </c>
@@ -12506,52 +16316,52 @@
       <c r="J5" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="87">
         <v>4</v>
       </c>
-      <c r="M5" s="82">
+      <c r="M5" s="88">
         <v>500</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="87">
         <v>250</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="89">
         <v>208</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="89">
         <v>23</v>
       </c>
-      <c r="Q5" s="55">
+      <c r="Q5" s="90">
         <v>19</v>
       </c>
-      <c r="R5" s="89">
+      <c r="R5" s="71">
         <f t="shared" si="0"/>
         <v>0.83199999999999996</v>
       </c>
-      <c r="S5" s="62">
+      <c r="S5" s="50">
         <f xml:space="preserve"> O5 * 100 / N5</f>
         <v>83.2</v>
       </c>
-      <c r="T5" s="76">
+      <c r="T5" s="64">
         <v>1.96</v>
       </c>
-      <c r="U5" s="37">
+      <c r="U5" s="25">
         <f xml:space="preserve"> T5 * SQRT((S5) * (100 - S5) / N5)</f>
         <v>4.6344944992954726</v>
       </c>
-      <c r="V5" s="37">
+      <c r="V5" s="25">
         <f t="shared" si="1"/>
         <v>78.565505500704532</v>
       </c>
-      <c r="W5" s="38">
+      <c r="W5" s="26">
         <f t="shared" si="2"/>
         <v>87.834494499295474</v>
       </c>
-      <c r="X5" s="69">
+      <c r="X5" s="57">
         <f t="shared" si="3"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="Y5" s="55">
+      <c r="Y5" s="43">
         <f t="shared" si="4"/>
         <v>7.6</v>
       </c>
@@ -12587,52 +16397,52 @@
       <c r="J6" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="91">
         <v>5</v>
       </c>
-      <c r="M6" s="83">
+      <c r="M6" s="92">
         <v>800</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="91">
         <v>250</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="93">
         <v>95</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="93">
         <v>0</v>
       </c>
-      <c r="Q6" s="56">
+      <c r="Q6" s="94">
         <v>155</v>
       </c>
-      <c r="R6" s="90">
+      <c r="R6" s="72">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="S6" s="63">
+      <c r="S6" s="51">
         <f xml:space="preserve"> O6 * 100 / N6</f>
         <v>38</v>
       </c>
-      <c r="T6" s="77">
+      <c r="T6" s="65">
         <v>1.96</v>
       </c>
-      <c r="U6" s="39">
+      <c r="U6" s="27">
         <f xml:space="preserve"> T6 * SQRT((S6) * (100 - S6) / N5)</f>
         <v>6.016912696724126</v>
       </c>
-      <c r="V6" s="39">
+      <c r="V6" s="27">
         <f t="shared" si="1"/>
         <v>31.983087303275873</v>
       </c>
-      <c r="W6" s="40">
+      <c r="W6" s="28">
         <f t="shared" si="2"/>
         <v>44.016912696724127</v>
       </c>
-      <c r="X6" s="70">
+      <c r="X6" s="58">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="56">
+      <c r="Y6" s="44">
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
@@ -12668,52 +16478,52 @@
       <c r="J7" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="95">
         <v>6</v>
       </c>
-      <c r="M7" s="84">
+      <c r="M7" s="96">
         <v>1100</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="95">
         <v>250</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="97">
         <v>2</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="97">
         <v>0</v>
       </c>
-      <c r="Q7" s="57">
+      <c r="Q7" s="98">
         <v>248</v>
       </c>
-      <c r="R7" s="91">
+      <c r="R7" s="73">
         <f t="shared" si="0"/>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="S7" s="64">
+      <c r="S7" s="52">
         <f xml:space="preserve"> O7 * 100 / N7</f>
         <v>0.8</v>
       </c>
-      <c r="T7" s="78">
+      <c r="T7" s="66">
         <v>1.96</v>
       </c>
-      <c r="U7" s="41">
+      <c r="U7" s="29">
         <f xml:space="preserve"> T7 * SQRT((S7) * (100 - S7) / N7)</f>
         <v>1.1042995535632532</v>
       </c>
-      <c r="V7" s="41">
+      <c r="V7" s="29">
         <f t="shared" si="1"/>
         <v>-0.30429955356325311</v>
       </c>
-      <c r="W7" s="42">
+      <c r="W7" s="30">
         <f t="shared" si="2"/>
         <v>1.9042995535632532</v>
       </c>
-      <c r="X7" s="71">
+      <c r="X7" s="59">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="57">
+      <c r="Y7" s="45">
         <f t="shared" si="4"/>
         <v>99.2</v>
       </c>
@@ -12814,7 +16624,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1748935959</v>
       </c>
@@ -12845,10 +16655,10 @@
       <c r="J11" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="W11" s="45" t="s">
+      <c r="W11" s="33" t="s">
         <v>1524</v>
       </c>
-      <c r="X11" s="46" t="s">
+      <c r="X11" s="34" t="s">
         <v>1523</v>
       </c>
     </row>
@@ -12883,14 +16693,14 @@
       <c r="J12" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="W12" s="47" t="s">
+      <c r="W12" s="35" t="s">
         <v>1521</v>
       </c>
-      <c r="X12" s="48" t="s">
+      <c r="X12" s="36" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1748935965</v>
       </c>
@@ -12921,10 +16731,10 @@
       <c r="J13" s="13" t="s">
         <v>1509</v>
       </c>
-      <c r="W13" s="49" t="s">
+      <c r="W13" s="37" t="s">
         <v>1522</v>
       </c>
-      <c r="X13" s="50" t="s">
+      <c r="X13" s="38" t="s">
         <v>1526</v>
       </c>
     </row>
